--- a/РасчетныеХарактеристикиПути.XLSX
+++ b/РасчетныеХарактеристикиПути.XLSX
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>№</t>
   </si>
@@ -128,12 +128,28 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>α1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>eps</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,7 +159,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,6 +169,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -169,15 +191,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -185,9 +204,40 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -492,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,7 +554,7 @@
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -538,8 +588,20 @@
       <c r="K1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>7</v>
       </c>
@@ -555,26 +617,32 @@
       <c r="E2" s="3">
         <v>0.246</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="15">
         <v>492</v>
       </c>
       <c r="G2" s="3">
         <v>0.40300000000000002</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="15">
         <v>518</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="15">
         <v>3092</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="11">
         <v>27.6</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="11">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="21">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="M2" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>8</v>
       </c>
@@ -590,166 +658,220 @@
       <c r="E3" s="3">
         <v>0.246</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="15">
         <v>492</v>
       </c>
       <c r="G3" s="3">
         <v>0.40300000000000002</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="15">
         <v>518</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="15">
         <v>3092</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="11">
         <v>27.6</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="11">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="L3" s="21">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="M3" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="9">
         <v>1000</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="9">
         <v>1.338E-2</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="10">
         <v>0.26100000000000001</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="16">
         <v>417</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="10">
         <v>0.40300000000000002</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="16">
         <v>518</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="16">
         <v>3092</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="18">
         <v>27.6</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="18">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="L4" s="21">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="M4" s="20">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0.87</v>
+      </c>
+      <c r="O4">
+        <v>0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="9">
         <v>1100</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="9">
         <v>1.421E-2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="10">
         <v>0.26100000000000001</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="16">
         <v>417</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="10">
         <v>0.40300000000000002</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="16">
         <v>518</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="16">
         <v>3092</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="18">
         <v>27.6</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="18">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="L5" s="21">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="M5" s="20">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0.87</v>
+      </c>
+      <c r="O5">
+        <v>0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="5">
         <v>1000</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="5">
         <v>1.6E-2</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="7">
         <v>0.3</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="17">
         <v>273</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="7">
         <v>0.40300000000000002</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="17">
         <v>518</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="17">
         <v>3092</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="19">
         <v>27.6</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="19">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="L6" s="21">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="M6" s="20">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="5">
         <v>1100</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="5">
         <v>1.6379999999999999E-2</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="7">
         <v>0.3</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="17">
         <v>273</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="7">
         <v>0.40300000000000002</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="17">
         <v>518</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="17">
         <v>3092</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="19">
         <v>27.6</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="19">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="21">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="M7" s="20">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>13</v>
       </c>
@@ -765,26 +887,32 @@
       <c r="E8" s="3">
         <v>0.82</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="15">
         <v>492</v>
       </c>
       <c r="G8" s="3">
         <v>0.433</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="15">
         <v>612</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="15">
         <v>2853</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="12">
         <v>25</v>
       </c>
-      <c r="K8" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K8" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="L8" s="20">
+        <v>1</v>
+      </c>
+      <c r="M8" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>14</v>
       </c>
@@ -800,26 +928,32 @@
       <c r="E9" s="3">
         <v>0.82</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="15">
         <v>492</v>
       </c>
       <c r="G9" s="3">
         <v>0.433</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="15">
         <v>612</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="15">
         <v>2853</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="12">
         <v>25</v>
       </c>
-      <c r="K9" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K9" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="L9" s="20">
+        <v>1</v>
+      </c>
+      <c r="M9" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>15</v>
       </c>
@@ -835,96 +969,126 @@
       <c r="E10" s="3">
         <v>0.87</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="15">
         <v>417</v>
       </c>
       <c r="G10" s="3">
         <v>0.433</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="15">
         <v>612</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="15">
         <v>2853</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="12">
         <v>25</v>
       </c>
-      <c r="K10" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="K10" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="L10" s="20">
+        <v>1</v>
+      </c>
+      <c r="M10" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="9">
         <v>270</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="9">
         <v>0.01</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="10">
         <v>0.87</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="16">
         <v>417</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="10">
         <v>0.433</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="16">
         <v>612</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="16">
         <v>2853</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="13">
         <v>25</v>
       </c>
-      <c r="K11" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="K11" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="L11" s="20">
+        <v>1</v>
+      </c>
+      <c r="M11" s="20">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0.87</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="9">
         <v>295</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="9">
         <v>1.023E-2</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="10">
         <v>0.87</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="16">
         <v>417</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="10">
         <v>0.433</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="16">
         <v>612</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="16">
         <v>2853</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="13">
         <v>25</v>
       </c>
-      <c r="K12" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="L12" s="20">
+        <v>1</v>
+      </c>
+      <c r="M12" s="20">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0.87</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>18</v>
       </c>
@@ -940,26 +1104,35 @@
       <c r="E13" s="3">
         <v>0.95699999999999996</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="15">
         <v>417</v>
       </c>
       <c r="G13" s="3">
         <v>0.43</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="15">
         <v>612</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="15">
         <v>2561</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="12">
         <v>23</v>
       </c>
-      <c r="K13" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="L13" s="20">
+        <v>1</v>
+      </c>
+      <c r="M13" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>19</v>
       </c>
@@ -975,26 +1148,35 @@
       <c r="E14" s="3">
         <v>0.95699999999999996</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="15">
         <v>417</v>
       </c>
       <c r="G14" s="3">
         <v>0.43</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="15">
         <v>612</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="15">
         <v>2561</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="12">
         <v>23</v>
       </c>
-      <c r="K14" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K14" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="L14" s="20">
+        <v>1</v>
+      </c>
+      <c r="M14" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>20</v>
       </c>
@@ -1010,26 +1192,35 @@
       <c r="E15" s="3">
         <v>0.95699999999999996</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="15">
         <v>417</v>
       </c>
       <c r="G15" s="3">
         <v>0.43</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="15">
         <v>612</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="15">
         <v>2561</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="12">
         <v>23</v>
       </c>
-      <c r="K15" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="L15" s="20">
+        <v>1</v>
+      </c>
+      <c r="M15" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>21</v>
       </c>
@@ -1042,99 +1233,132 @@
       <c r="D16" s="2">
         <v>1.11E-2</v>
       </c>
-      <c r="E16" s="5">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="15">
         <v>273</v>
       </c>
       <c r="G16" s="3">
         <v>0.433</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="15">
         <v>527</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="15">
         <v>2466</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="12">
         <v>23</v>
       </c>
-      <c r="K16" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K16" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="L16" s="20">
+        <v>1</v>
+      </c>
+      <c r="M16" s="20">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>260</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>1.145E-2</v>
       </c>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
-      <c r="F17" s="8">
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="17">
         <v>273</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <v>0.433</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="17">
         <v>527</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="17">
         <v>2466</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="14">
         <v>23</v>
       </c>
-      <c r="K17" s="9">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K17" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="L17" s="20">
+        <v>1</v>
+      </c>
+      <c r="M17" s="20">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>290</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>1.176E-2</v>
       </c>
-      <c r="E18" s="7">
-        <v>1</v>
-      </c>
-      <c r="F18" s="8">
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="17">
         <v>273</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <v>0.433</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="17">
         <v>527</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="17">
         <v>2466</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="14">
         <v>23</v>
       </c>
-      <c r="K18" s="9">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K18" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="L18" s="20">
+        <v>1</v>
+      </c>
+      <c r="M18" s="20">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>24</v>
       </c>
@@ -1147,29 +1371,38 @@
       <c r="D19" s="2">
         <v>1.044E-2</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="15">
         <v>273</v>
       </c>
       <c r="G19" s="3">
         <v>0.433</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="15">
         <v>527</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="15">
         <v>2561</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="12">
         <v>23</v>
       </c>
-      <c r="K19" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K19" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="L19" s="20">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>25</v>
       </c>
@@ -1182,29 +1415,38 @@
       <c r="D20" s="2">
         <v>1.085E-2</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="15">
         <v>273</v>
       </c>
       <c r="G20" s="3">
         <v>0.433</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="15">
         <v>527</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="15">
         <v>2561</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="12">
         <v>23</v>
       </c>
-      <c r="K20" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K20" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="L20" s="20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>26</v>
       </c>
@@ -1217,29 +1459,38 @@
       <c r="D21" s="2">
         <v>1.11E-2</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="15">
         <v>273</v>
       </c>
       <c r="G21" s="3">
         <v>0.433</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="15">
         <v>527</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="15">
         <v>2561</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="12">
         <v>23</v>
       </c>
-      <c r="K21" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K21" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="L21" s="20">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>27</v>
       </c>
@@ -1252,29 +1503,38 @@
       <c r="D22" s="2">
         <v>1.044E-2</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>1.5</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="15">
         <v>273</v>
       </c>
       <c r="G22" s="3">
         <v>0.433</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="15">
         <v>527</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="15">
         <v>2561</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="12">
         <v>23</v>
       </c>
-      <c r="K22" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K22" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="L22" s="20">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.5</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>28</v>
       </c>
@@ -1287,29 +1547,38 @@
       <c r="D23" s="2">
         <v>1.085E-2</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>1.5</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="15">
         <v>273</v>
       </c>
       <c r="G23" s="3">
         <v>0.433</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="15">
         <v>527</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="15">
         <v>2561</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="12">
         <v>23</v>
       </c>
-      <c r="K23" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K23" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="L23" s="20">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.5</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>29</v>
       </c>
@@ -1322,29 +1591,38 @@
       <c r="D24" s="2">
         <v>1.11E-2</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>1.5</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="15">
         <v>273</v>
       </c>
       <c r="G24" s="3">
         <v>0.433</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="15">
         <v>527</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="15">
         <v>2561</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="12">
         <v>23</v>
       </c>
-      <c r="K24" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K24" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="L24" s="20">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.5</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>30</v>
       </c>
@@ -1360,26 +1638,35 @@
       <c r="E25" s="3">
         <v>1.65</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="15">
         <v>204</v>
       </c>
       <c r="G25" s="3">
         <v>0.433</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="15">
         <v>464</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="15">
         <v>2561</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="12">
         <v>23</v>
       </c>
-      <c r="K25" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="L25" s="20">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.5</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>31</v>
       </c>
@@ -1395,26 +1682,35 @@
       <c r="E26" s="3">
         <v>1.65</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="15">
         <v>204</v>
       </c>
       <c r="G26" s="3">
         <v>0.433</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="15">
         <v>464</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="15">
         <v>2561</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="12">
         <v>23</v>
       </c>
-      <c r="K26" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K26" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="L26" s="20">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.5</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>32</v>
       </c>
@@ -1430,26 +1726,35 @@
       <c r="E27" s="3">
         <v>1.65</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="15">
         <v>204</v>
       </c>
       <c r="G27" s="3">
         <v>0.433</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="15">
         <v>464</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="15">
         <v>2561</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="12">
         <v>23</v>
       </c>
-      <c r="K27" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K27" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="L27" s="20">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.5</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>33</v>
       </c>
@@ -1465,23 +1770,32 @@
       <c r="E28" s="3">
         <v>1.65</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="15">
         <v>204</v>
       </c>
       <c r="G28" s="3">
         <v>0.433</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="15">
         <v>464</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="15">
         <v>2561</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="12">
         <v>23</v>
       </c>
-      <c r="K28" s="4">
-        <v>0.8</v>
+      <c r="K28" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="L28" s="20">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.5</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/РасчетныеХарактеристикиПути.XLSX
+++ b/РасчетныеХарактеристикиПути.XLSX
@@ -146,9 +146,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -191,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -238,6 +239,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -544,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,7 +615,7 @@
       <c r="C2" s="2">
         <v>1000</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="22">
         <v>1.299E-2</v>
       </c>
       <c r="E2" s="3">
@@ -652,7 +656,7 @@
       <c r="C3" s="2">
         <v>1100</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="22">
         <v>1.3299999999999999E-2</v>
       </c>
       <c r="E3" s="3">
@@ -693,7 +697,7 @@
       <c r="C4" s="9">
         <v>1000</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="23">
         <v>1.338E-2</v>
       </c>
       <c r="E4" s="10">
@@ -740,7 +744,7 @@
       <c r="C5" s="9">
         <v>1100</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="23">
         <v>1.421E-2</v>
       </c>
       <c r="E5" s="10">
@@ -787,7 +791,7 @@
       <c r="C6" s="5">
         <v>1000</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="24">
         <v>1.6E-2</v>
       </c>
       <c r="E6" s="7">
@@ -817,7 +821,7 @@
       <c r="M6" s="20">
         <v>1</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="20">
         <v>1</v>
       </c>
       <c r="O6">
@@ -834,7 +838,7 @@
       <c r="C7" s="5">
         <v>1100</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="24">
         <v>1.6379999999999999E-2</v>
       </c>
       <c r="E7" s="7">
@@ -864,7 +868,7 @@
       <c r="M7" s="20">
         <v>1</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="20">
         <v>1</v>
       </c>
       <c r="O7">
@@ -881,7 +885,7 @@
       <c r="C8" s="2">
         <v>270</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="22">
         <v>9.3600000000000003E-3</v>
       </c>
       <c r="E8" s="3">
@@ -922,7 +926,7 @@
       <c r="C9" s="2">
         <v>295</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="22">
         <v>9.5700000000000004E-3</v>
       </c>
       <c r="E9" s="3">
@@ -963,7 +967,7 @@
       <c r="C10" s="2">
         <v>230</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="22">
         <v>9.6100000000000005E-3</v>
       </c>
       <c r="E10" s="3">
@@ -1004,7 +1008,7 @@
       <c r="C11" s="9">
         <v>270</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="23">
         <v>0.01</v>
       </c>
       <c r="E11" s="10">
@@ -1037,7 +1041,7 @@
       <c r="N11">
         <v>0.87</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1051,7 +1055,7 @@
       <c r="C12" s="9">
         <v>295</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="23">
         <v>1.023E-2</v>
       </c>
       <c r="E12" s="10">
@@ -1084,7 +1088,7 @@
       <c r="N12">
         <v>0.87</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1098,7 +1102,7 @@
       <c r="C13" s="2">
         <v>180</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="22">
         <v>9.0399999999999994E-3</v>
       </c>
       <c r="E13" s="3">
@@ -1128,7 +1132,7 @@
       <c r="M13" s="20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1142,7 +1146,7 @@
       <c r="C14" s="2">
         <v>210</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="22">
         <v>9.3900000000000008E-3</v>
       </c>
       <c r="E14" s="3">
@@ -1172,7 +1176,7 @@
       <c r="M14" s="20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1186,7 +1190,7 @@
       <c r="C15" s="2">
         <v>230</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="22">
         <v>9.6100000000000005E-3</v>
       </c>
       <c r="E15" s="3">
@@ -1216,7 +1220,7 @@
       <c r="M15" s="20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1230,7 +1234,7 @@
       <c r="C16" s="2">
         <v>230</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="22">
         <v>1.11E-2</v>
       </c>
       <c r="E16" s="4">
@@ -1260,7 +1264,7 @@
       <c r="M16" s="20">
         <v>1</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1274,7 +1278,7 @@
       <c r="C17" s="5">
         <v>260</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="24">
         <v>1.145E-2</v>
       </c>
       <c r="E17" s="6">
@@ -1304,10 +1308,10 @@
       <c r="M17" s="20">
         <v>1</v>
       </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
+      <c r="N17" s="20">
+        <v>1</v>
+      </c>
+      <c r="O17" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1321,7 +1325,7 @@
       <c r="C18" s="5">
         <v>290</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="24">
         <v>1.176E-2</v>
       </c>
       <c r="E18" s="6">
@@ -1351,10 +1355,10 @@
       <c r="M18" s="20">
         <v>1</v>
       </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
+      <c r="N18" s="20">
+        <v>1</v>
+      </c>
+      <c r="O18" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1368,7 +1372,7 @@
       <c r="C19" s="2">
         <v>180</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="22">
         <v>1.044E-2</v>
       </c>
       <c r="E19" s="4">
@@ -1398,7 +1402,7 @@
       <c r="M19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1412,7 +1416,7 @@
       <c r="C20" s="2">
         <v>210</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="22">
         <v>1.085E-2</v>
       </c>
       <c r="E20" s="4">
@@ -1442,7 +1446,7 @@
       <c r="M20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1456,7 +1460,7 @@
       <c r="C21" s="2">
         <v>230</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="22">
         <v>1.11E-2</v>
       </c>
       <c r="E21" s="4">
@@ -1486,7 +1490,7 @@
       <c r="M21">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1500,7 +1504,7 @@
       <c r="C22" s="2">
         <v>180</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="22">
         <v>1.044E-2</v>
       </c>
       <c r="E22" s="4">
@@ -1530,7 +1534,7 @@
       <c r="M22">
         <v>1.5</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1544,7 +1548,7 @@
       <c r="C23" s="2">
         <v>210</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="22">
         <v>1.085E-2</v>
       </c>
       <c r="E23" s="4">
@@ -1574,7 +1578,7 @@
       <c r="M23">
         <v>1.5</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1588,7 +1592,7 @@
       <c r="C24" s="2">
         <v>230</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="22">
         <v>1.11E-2</v>
       </c>
       <c r="E24" s="4">
@@ -1618,7 +1622,7 @@
       <c r="M24">
         <v>1.5</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1632,7 +1636,7 @@
       <c r="C25" s="2">
         <v>160</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="22">
         <v>1.0970000000000001E-2</v>
       </c>
       <c r="E25" s="3">
@@ -1662,7 +1666,7 @@
       <c r="M25">
         <v>1.5</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1676,7 +1680,7 @@
       <c r="C26" s="2">
         <v>180</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="22">
         <v>1.1140000000000001E-2</v>
       </c>
       <c r="E26" s="3">
@@ -1706,7 +1710,7 @@
       <c r="M26">
         <v>1.5</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1720,7 +1724,7 @@
       <c r="C27" s="2">
         <v>210</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="22">
         <v>1.174E-2</v>
       </c>
       <c r="E27" s="3">
@@ -1750,7 +1754,7 @@
       <c r="M27">
         <v>1.5</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1764,7 +1768,7 @@
       <c r="C28" s="2">
         <v>230</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="22">
         <v>1.2019999999999999E-2</v>
       </c>
       <c r="E28" s="3">
@@ -1794,7 +1798,7 @@
       <c r="M28">
         <v>1.5</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="20">
         <v>1</v>
       </c>
     </row>
